--- a/prjplanning/Iteration2.xlsx
+++ b/prjplanning/Iteration2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iterationsplan" sheetId="4" r:id="rId1"/>
@@ -712,49 +712,49 @@
                 <c:formatCode>[$-807]ddd\,\ d/mmm</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>41221</c:v>
+                  <c:v>41235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41222</c:v>
+                  <c:v>41236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41223</c:v>
+                  <c:v>41237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41224</c:v>
+                  <c:v>41238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41225</c:v>
+                  <c:v>41239</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41226</c:v>
+                  <c:v>41240</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41227</c:v>
+                  <c:v>41241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41228</c:v>
+                  <c:v>41242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41229</c:v>
+                  <c:v>41243</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41230</c:v>
+                  <c:v>41244</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41231</c:v>
+                  <c:v>41245</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41232</c:v>
+                  <c:v>41246</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41233</c:v>
+                  <c:v>41247</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41234</c:v>
+                  <c:v>41248</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41235</c:v>
+                  <c:v>41249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,40 +778,40 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,11 +890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82143104"/>
-        <c:axId val="82144640"/>
+        <c:axId val="94266880"/>
+        <c:axId val="94268416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="82143104"/>
+        <c:axId val="94266880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +914,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82144640"/>
+        <c:crossAx val="94268416"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="0"/>
@@ -925,7 +925,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="82144640"/>
+        <c:axId val="94268416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -957,7 +957,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82143104"/>
+        <c:crossAx val="94266880"/>
         <c:crossesAt val="41221"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1080,7 +1080,6 @@
             <a:rPr lang="de-CH" sz="2400"/>
             <a:t>- 6.12.2012</a:t>
           </a:r>
-          <a:endParaRPr lang="de-CH" sz="2400"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -1697,7 +1696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2225,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2286,7 +2287,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>41221</v>
+        <v>41235</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -2311,7 +2312,7 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
-        <v>41222</v>
+        <v>41236</v>
       </c>
       <c r="B6" s="3">
         <f>B5+1</f>
@@ -2337,7 +2338,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A19" si="2">A6+1</f>
-        <v>41223</v>
+        <v>41237</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ref="B7:B19" si="3">B6+1</f>
@@ -2363,7 +2364,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="2"/>
-        <v>41224</v>
+        <v>41238</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="3"/>
@@ -2374,11 +2375,11 @@
         <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2"/>
       <c r="I8" s="50">
@@ -2389,7 +2390,7 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="2"/>
-        <v>41225</v>
+        <v>41239</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="3"/>
@@ -2397,14 +2398,14 @@
       </c>
       <c r="C9" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2"/>
       <c r="I9" s="50">
@@ -2415,7 +2416,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="2"/>
-        <v>41226</v>
+        <v>41240</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="3"/>
@@ -2423,14 +2424,14 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
       </c>
       <c r="E10" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2"/>
       <c r="I10" s="50">
@@ -2441,7 +2442,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="2"/>
-        <v>41227</v>
+        <v>41241</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="3"/>
@@ -2449,14 +2450,14 @@
       </c>
       <c r="C11" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
       <c r="E11" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2"/>
       <c r="I11" s="50">
@@ -2467,7 +2468,7 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="2"/>
-        <v>41228</v>
+        <v>41242</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="3"/>
@@ -2475,14 +2476,14 @@
       </c>
       <c r="C12" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2"/>
       <c r="I12" s="50">
@@ -2493,7 +2494,7 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="2"/>
-        <v>41229</v>
+        <v>41243</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="3"/>
@@ -2501,14 +2502,14 @@
       </c>
       <c r="C13" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2"/>
       <c r="I13" s="50">
@@ -2519,7 +2520,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="2"/>
-        <v>41230</v>
+        <v>41244</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="3"/>
@@ -2527,14 +2528,14 @@
       </c>
       <c r="C14" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2"/>
       <c r="I14" s="50">
@@ -2545,7 +2546,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="2"/>
-        <v>41231</v>
+        <v>41245</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="3"/>
@@ -2553,14 +2554,14 @@
       </c>
       <c r="C15" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2"/>
       <c r="I15" s="50">
@@ -2571,7 +2572,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="2"/>
-        <v>41232</v>
+        <v>41246</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="3"/>
@@ -2579,14 +2580,14 @@
       </c>
       <c r="C16" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="I16" s="50">
@@ -2597,7 +2598,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="2"/>
-        <v>41233</v>
+        <v>41247</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="3"/>
@@ -2605,14 +2606,14 @@
       </c>
       <c r="C17" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
       </c>
       <c r="E17" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="I17" s="50">
@@ -2623,7 +2624,7 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="2"/>
-        <v>41234</v>
+        <v>41248</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="3"/>
@@ -2631,14 +2632,14 @@
       </c>
       <c r="C18" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="I18" s="50">
@@ -2649,7 +2650,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="2"/>
-        <v>41235</v>
+        <v>41249</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="3"/>
@@ -2657,14 +2658,14 @@
       </c>
       <c r="C19" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
       </c>
       <c r="E19" s="49">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="I19" s="50">
@@ -2682,7 +2683,7 @@
       </c>
       <c r="C20" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
         <v>0</v>
